--- a/data/pca/factorExposure/factorExposure_2014-10-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-10-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +738,63 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>-0.002082398853997026</v>
+        <v>0.0158343358937711</v>
       </c>
       <c r="C2">
-        <v>0.1015405114004882</v>
+        <v>0.06825960711600872</v>
       </c>
       <c r="D2">
-        <v>0.007948273269050187</v>
+        <v>-0.02804573002858616</v>
       </c>
       <c r="E2">
-        <v>-0.2333362505040221</v>
+        <v>0.08425205342551104</v>
       </c>
       <c r="F2">
-        <v>-0.07676391635517983</v>
+        <v>0.1411282635050383</v>
       </c>
       <c r="G2">
-        <v>-0.06093843635529422</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.002278090654710348</v>
+      </c>
+      <c r="H2">
+        <v>-0.05771484569657392</v>
+      </c>
+      <c r="I2">
+        <v>-0.01530916844541933</v>
+      </c>
+      <c r="J2">
+        <v>-0.1793497795536226</v>
+      </c>
+      <c r="K2">
+        <v>-0.03601733034838459</v>
+      </c>
+      <c r="L2">
+        <v>0.1202354265684875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +814,63 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>-0.01889601610912331</v>
+        <v>0.01797784137346501</v>
       </c>
       <c r="C4">
-        <v>0.1708350543618259</v>
+        <v>0.1452426649578177</v>
       </c>
       <c r="D4">
-        <v>-0.03030949728510731</v>
+        <v>-0.0664550562414076</v>
       </c>
       <c r="E4">
-        <v>-0.09991074828272356</v>
+        <v>-0.0227820699724133</v>
       </c>
       <c r="F4">
-        <v>0.06290819715618566</v>
+        <v>0.07720550129000862</v>
       </c>
       <c r="G4">
-        <v>-0.02533939981171222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.01202469252233408</v>
+      </c>
+      <c r="H4">
+        <v>-0.1044710450122266</v>
+      </c>
+      <c r="I4">
+        <v>-0.01711008460256452</v>
+      </c>
+      <c r="J4">
+        <v>-0.1851280823427296</v>
+      </c>
+      <c r="K4">
+        <v>0.06825741661524057</v>
+      </c>
+      <c r="L4">
+        <v>0.0436503056736198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +890,443 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>-0.02672828288987953</v>
+        <v>0.03901957715262604</v>
       </c>
       <c r="C6">
-        <v>0.08387491600704089</v>
+        <v>0.08846708919963636</v>
       </c>
       <c r="D6">
-        <v>-0.05273991485206281</v>
+        <v>-0.02968738454528467</v>
       </c>
       <c r="E6">
-        <v>-0.06162283765136862</v>
+        <v>0.04449434406992954</v>
       </c>
       <c r="F6">
-        <v>-0.008829220201226395</v>
+        <v>0.0187454844423959</v>
       </c>
       <c r="G6">
-        <v>0.01339236520666099</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.04340256857423098</v>
+      </c>
+      <c r="H6">
+        <v>-0.02663888301674356</v>
+      </c>
+      <c r="I6">
+        <v>0.07861253390866521</v>
+      </c>
+      <c r="J6">
+        <v>-0.04784694578861422</v>
+      </c>
+      <c r="K6">
+        <v>-0.07778413338807737</v>
+      </c>
+      <c r="L6">
+        <v>-0.02744511629641721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.001538346530872965</v>
+        <v>0.01622792703978773</v>
       </c>
       <c r="C7">
-        <v>0.06279966987866718</v>
+        <v>0.07349084339612984</v>
       </c>
       <c r="D7">
-        <v>-0.03098065725846079</v>
+        <v>-0.02803179717604425</v>
       </c>
       <c r="E7">
-        <v>-0.04178751997082031</v>
+        <v>-0.01843231583736826</v>
       </c>
       <c r="F7">
-        <v>0.04308033432836187</v>
+        <v>0.00240667243209953</v>
       </c>
       <c r="G7">
-        <v>0.007072317839918899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.04334221907111384</v>
+      </c>
+      <c r="H7">
+        <v>-0.1016972710991393</v>
+      </c>
+      <c r="I7">
+        <v>0.006126812582634358</v>
+      </c>
+      <c r="J7">
+        <v>-0.04592059127811895</v>
+      </c>
+      <c r="K7">
+        <v>0.007896710295230499</v>
+      </c>
+      <c r="L7">
+        <v>0.01996424805520111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.007294560353731995</v>
+        <v>-0.0005486733242706938</v>
       </c>
       <c r="C8">
-        <v>0.07128335568016161</v>
+        <v>0.0630846943708185</v>
       </c>
       <c r="D8">
-        <v>-0.02771307657465935</v>
+        <v>-0.04381186218161289</v>
       </c>
       <c r="E8">
-        <v>-0.09446058491393582</v>
+        <v>0.01626010759052091</v>
       </c>
       <c r="F8">
-        <v>0.02229741485352372</v>
+        <v>0.06176251752374753</v>
       </c>
       <c r="G8">
-        <v>-0.03062481282373625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.01076165051736454</v>
+      </c>
+      <c r="H8">
+        <v>-0.05594350384578486</v>
+      </c>
+      <c r="I8">
+        <v>0.005405960777600864</v>
+      </c>
+      <c r="J8">
+        <v>-0.009475061454063417</v>
+      </c>
+      <c r="K8">
+        <v>0.00838103249780087</v>
+      </c>
+      <c r="L8">
+        <v>0.00720235890981776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>-0.01061851014612558</v>
+        <v>0.01315935566078745</v>
       </c>
       <c r="C9">
-        <v>0.1344080956834252</v>
+        <v>0.1081349013661307</v>
       </c>
       <c r="D9">
-        <v>-0.03895695288206762</v>
+        <v>-0.0448512941585485</v>
       </c>
       <c r="E9">
-        <v>-0.0453439098174634</v>
+        <v>0.0004338422729400867</v>
       </c>
       <c r="F9">
-        <v>0.02212608436344385</v>
+        <v>0.03016140908219253</v>
       </c>
       <c r="G9">
-        <v>0.02739812685532964</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.0002746971889768039</v>
+      </c>
+      <c r="H9">
+        <v>-0.09239710663941657</v>
+      </c>
+      <c r="I9">
+        <v>0.01993272508925193</v>
+      </c>
+      <c r="J9">
+        <v>-0.09027906155876064</v>
+      </c>
+      <c r="K9">
+        <v>0.04907412166108751</v>
+      </c>
+      <c r="L9">
+        <v>-0.001551156145185302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>-0.2681026432159495</v>
+        <v>0.2471527086500694</v>
       </c>
       <c r="C10">
-        <v>-0.08713317939233511</v>
+        <v>-0.09145931764275858</v>
       </c>
       <c r="D10">
-        <v>0.02336448941258647</v>
+        <v>0.003890883024923486</v>
       </c>
       <c r="E10">
-        <v>0.0328946061553109</v>
+        <v>0.01252884587505394</v>
       </c>
       <c r="F10">
-        <v>0.004924060014354035</v>
+        <v>-0.01387440158127489</v>
       </c>
       <c r="G10">
-        <v>0.0198140709625797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.0143735509162235</v>
+      </c>
+      <c r="H10">
+        <v>-0.03641362468214378</v>
+      </c>
+      <c r="I10">
+        <v>-0.1634161044080786</v>
+      </c>
+      <c r="J10">
+        <v>0.05819061937609492</v>
+      </c>
+      <c r="K10">
+        <v>0.1091473234290007</v>
+      </c>
+      <c r="L10">
+        <v>0.03391167612915099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>-0.008105882316584205</v>
+        <v>0.01590884008282827</v>
       </c>
       <c r="C11">
-        <v>0.06782949287542794</v>
+        <v>0.083890079891319</v>
       </c>
       <c r="D11">
-        <v>-0.02551585254033543</v>
+        <v>-0.0383793302282009</v>
       </c>
       <c r="E11">
-        <v>0.01242714038841365</v>
+        <v>-0.009076088025833229</v>
       </c>
       <c r="F11">
-        <v>0.02750769860565909</v>
+        <v>-0.01280918307140638</v>
       </c>
       <c r="G11">
-        <v>0.04204446102009061</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.009417055168290799</v>
+      </c>
+      <c r="H11">
+        <v>-0.03151485571606805</v>
+      </c>
+      <c r="I11">
+        <v>0.0235938430758831</v>
+      </c>
+      <c r="J11">
+        <v>0.01678735613540557</v>
+      </c>
+      <c r="K11">
+        <v>0.01733584415665017</v>
+      </c>
+      <c r="L11">
+        <v>-0.05795836063121529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.006890533967891116</v>
+        <v>0.01594812018075113</v>
       </c>
       <c r="C12">
-        <v>0.05686107231785641</v>
+        <v>0.05986209131295597</v>
       </c>
       <c r="D12">
-        <v>-0.02920740798043413</v>
+        <v>-0.02242491992204636</v>
       </c>
       <c r="E12">
-        <v>0.008722158872425501</v>
+        <v>0.01551199386165437</v>
       </c>
       <c r="F12">
-        <v>-0.00310064545271617</v>
+        <v>-0.01890850443872343</v>
       </c>
       <c r="G12">
-        <v>0.07177821150152827</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.02744079803618162</v>
+      </c>
+      <c r="H12">
+        <v>-0.02975473453027066</v>
+      </c>
+      <c r="I12">
+        <v>0.01810632584166051</v>
+      </c>
+      <c r="J12">
+        <v>0.005041193872893171</v>
+      </c>
+      <c r="K12">
+        <v>0.01714463020064761</v>
+      </c>
+      <c r="L12">
+        <v>-0.05408474772732653</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>-0.02209726880165679</v>
+        <v>0.007099131816348499</v>
       </c>
       <c r="C13">
-        <v>0.1252089933203394</v>
+        <v>0.1209689151921998</v>
       </c>
       <c r="D13">
-        <v>-0.05563134306299167</v>
+        <v>-0.04394394537374677</v>
       </c>
       <c r="E13">
-        <v>-0.05880367440631248</v>
+        <v>0.1364318919979168</v>
       </c>
       <c r="F13">
-        <v>0.03070998135809139</v>
+        <v>0.07550193797925578</v>
       </c>
       <c r="G13">
-        <v>0.1823715221692684</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1208628278385926</v>
+      </c>
+      <c r="H13">
+        <v>-0.1315074439886378</v>
+      </c>
+      <c r="I13">
+        <v>-0.2074492437624841</v>
+      </c>
+      <c r="J13">
+        <v>0.2232775999036887</v>
+      </c>
+      <c r="K13">
+        <v>-0.09853151457769166</v>
+      </c>
+      <c r="L13">
+        <v>-0.05143356059554217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>-0.008524819030132009</v>
+        <v>0.01831570159007533</v>
       </c>
       <c r="C14">
-        <v>0.06683100129571382</v>
+        <v>0.07485122798479074</v>
       </c>
       <c r="D14">
-        <v>-0.02986288082595158</v>
+        <v>-0.05034458650458143</v>
       </c>
       <c r="E14">
-        <v>-0.04258533335740498</v>
+        <v>0.04510540239335845</v>
       </c>
       <c r="F14">
-        <v>-0.007895172331856319</v>
+        <v>-0.01327027328782124</v>
       </c>
       <c r="G14">
-        <v>0.06464304807331017</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.07647923781742494</v>
+      </c>
+      <c r="H14">
+        <v>-0.2080617245384123</v>
+      </c>
+      <c r="I14">
+        <v>0.03902667876297898</v>
+      </c>
+      <c r="J14">
+        <v>0.1166999391283258</v>
+      </c>
+      <c r="K14">
+        <v>-0.02168263756890772</v>
+      </c>
+      <c r="L14">
+        <v>0.1580447459312346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>-0.007471272693123312</v>
+        <v>0.001690219003657079</v>
       </c>
       <c r="C15">
-        <v>0.09986493188287668</v>
+        <v>0.08038385605358277</v>
       </c>
       <c r="D15">
-        <v>-0.04155444708292642</v>
+        <v>-0.03587404019672621</v>
       </c>
       <c r="E15">
-        <v>-0.0725694690134364</v>
+        <v>0.003370666193946587</v>
       </c>
       <c r="F15">
-        <v>0.02969839169667278</v>
+        <v>0.02430731501842416</v>
       </c>
       <c r="G15">
-        <v>0.02825954379930001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.0327001895105226</v>
+      </c>
+      <c r="H15">
+        <v>-0.09042109485249797</v>
+      </c>
+      <c r="I15">
+        <v>0.02494922930519261</v>
+      </c>
+      <c r="J15">
+        <v>0.05227314765359283</v>
+      </c>
+      <c r="K15">
+        <v>0.02524614264378714</v>
+      </c>
+      <c r="L15">
+        <v>0.03122814412386767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>-0.01110393924554279</v>
+        <v>0.01506402829739969</v>
       </c>
       <c r="C16">
-        <v>0.06321186393542379</v>
+        <v>0.06437273920576878</v>
       </c>
       <c r="D16">
-        <v>-0.01743590022858028</v>
+        <v>-0.0267316248646699</v>
       </c>
       <c r="E16">
-        <v>0.01007996481408267</v>
+        <v>-0.003217448196994204</v>
       </c>
       <c r="F16">
-        <v>0.003746354916057826</v>
+        <v>-0.009521843424325563</v>
       </c>
       <c r="G16">
-        <v>0.03445057148464773</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.008005807964767974</v>
+      </c>
+      <c r="H16">
+        <v>-0.02382566589701133</v>
+      </c>
+      <c r="I16">
+        <v>0.02032711371723731</v>
+      </c>
+      <c r="J16">
+        <v>0.001199437650420098</v>
+      </c>
+      <c r="K16">
+        <v>0.012708864652671</v>
+      </c>
+      <c r="L16">
+        <v>-0.03984031325961025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1346,25 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1384,25 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1422,291 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>-0.01317240916355564</v>
+        <v>0.01331660494037274</v>
       </c>
       <c r="C20">
-        <v>0.0902595759017949</v>
+        <v>0.08685808888120561</v>
       </c>
       <c r="D20">
-        <v>-0.01934270220909278</v>
+        <v>-0.0265053498983419</v>
       </c>
       <c r="E20">
-        <v>-0.01004588391955643</v>
+        <v>-0.02627060366049808</v>
       </c>
       <c r="F20">
-        <v>0.06553441326821126</v>
+        <v>-0.001511814096434717</v>
       </c>
       <c r="G20">
-        <v>0.0810769692591494</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04037011068042697</v>
+      </c>
+      <c r="H20">
+        <v>-0.07261286622387621</v>
+      </c>
+      <c r="I20">
+        <v>0.02014415082100568</v>
+      </c>
+      <c r="J20">
+        <v>-0.01918748368155559</v>
+      </c>
+      <c r="K20">
+        <v>0.01457511774103543</v>
+      </c>
+      <c r="L20">
+        <v>-0.004435761222811587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>0.002043886158570139</v>
+        <v>0.01300768171343422</v>
       </c>
       <c r="C21">
-        <v>0.09224263824332517</v>
+        <v>0.07558644675555107</v>
       </c>
       <c r="D21">
-        <v>0.026192354485555</v>
+        <v>-0.02465911188850075</v>
       </c>
       <c r="E21">
-        <v>-0.0510394823640488</v>
+        <v>0.08612252100740837</v>
       </c>
       <c r="F21">
-        <v>-0.04016726412351579</v>
+        <v>-0.002848118342253948</v>
       </c>
       <c r="G21">
-        <v>0.05034366096935638</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.01633096411567548</v>
+      </c>
+      <c r="H21">
+        <v>-0.1430513702005556</v>
+      </c>
+      <c r="I21">
+        <v>-0.02723227653291494</v>
+      </c>
+      <c r="J21">
+        <v>0.04704430450167692</v>
+      </c>
+      <c r="K21">
+        <v>-0.003428187875036336</v>
+      </c>
+      <c r="L21">
+        <v>-0.01940527890221387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>-0.04164395484994642</v>
+        <v>0.005025661545133214</v>
       </c>
       <c r="C22">
-        <v>0.1850210628006286</v>
+        <v>0.1717775011275871</v>
       </c>
       <c r="D22">
-        <v>0.088621334483818</v>
+        <v>-0.0178567779889505</v>
       </c>
       <c r="E22">
-        <v>-0.2843195079189033</v>
+        <v>0.01322986325032503</v>
       </c>
       <c r="F22">
-        <v>0.1462444259115486</v>
+        <v>0.5302013539803724</v>
       </c>
       <c r="G22">
-        <v>-0.2050675243648548</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.0009261873876706667</v>
+      </c>
+      <c r="H22">
+        <v>0.2984984993109243</v>
+      </c>
+      <c r="I22">
+        <v>-0.02601333269539972</v>
+      </c>
+      <c r="J22">
+        <v>0.2141771254116563</v>
+      </c>
+      <c r="K22">
+        <v>0.05452427195897695</v>
+      </c>
+      <c r="L22">
+        <v>-0.03540188753946735</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>-0.04143250415696904</v>
+        <v>0.009928896991270119</v>
       </c>
       <c r="C23">
-        <v>0.1856906489277376</v>
+        <v>0.1755426316376903</v>
       </c>
       <c r="D23">
-        <v>0.08831586538566395</v>
+        <v>-0.01704687056204149</v>
       </c>
       <c r="E23">
-        <v>-0.280102602679307</v>
+        <v>0.01362761889648996</v>
       </c>
       <c r="F23">
-        <v>0.1447328215247218</v>
+        <v>0.5118891535613435</v>
       </c>
       <c r="G23">
-        <v>-0.2045302275805956</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.003473696331985427</v>
+      </c>
+      <c r="H23">
+        <v>0.2772212660905431</v>
+      </c>
+      <c r="I23">
+        <v>-0.01869252986611235</v>
+      </c>
+      <c r="J23">
+        <v>0.2004085412652306</v>
+      </c>
+      <c r="K23">
+        <v>0.05751633083017807</v>
+      </c>
+      <c r="L23">
+        <v>-0.04005420219379287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>-0.004854107078999135</v>
+        <v>0.0163189049033111</v>
       </c>
       <c r="C24">
-        <v>0.06775660307397863</v>
+        <v>0.07037638842270369</v>
       </c>
       <c r="D24">
-        <v>-0.0407939429487599</v>
+        <v>-0.03958149745187338</v>
       </c>
       <c r="E24">
-        <v>0.008269368416737642</v>
+        <v>-0.006869144395663744</v>
       </c>
       <c r="F24">
-        <v>0.01648743073752434</v>
+        <v>-0.01106715946717584</v>
       </c>
       <c r="G24">
-        <v>0.05504381460624928</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02236830366791329</v>
+      </c>
+      <c r="H24">
+        <v>-0.04142841053336031</v>
+      </c>
+      <c r="I24">
+        <v>0.02088525316958032</v>
+      </c>
+      <c r="J24">
+        <v>0.009475798325209159</v>
+      </c>
+      <c r="K24">
+        <v>0.0215282575445799</v>
+      </c>
+      <c r="L24">
+        <v>-0.0483559862304044</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>-0.008695384326413773</v>
+        <v>0.02027240777399076</v>
       </c>
       <c r="C25">
-        <v>0.06599295025466471</v>
+        <v>0.07025491511933558</v>
       </c>
       <c r="D25">
-        <v>-0.01587915706705016</v>
+        <v>-0.02819975561044511</v>
       </c>
       <c r="E25">
-        <v>0.01680134844522305</v>
+        <v>-0.008517830650109637</v>
       </c>
       <c r="F25">
-        <v>0.01996476671871013</v>
+        <v>-0.008639771918622252</v>
       </c>
       <c r="G25">
-        <v>0.05258261914969661</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.01874232463071064</v>
+      </c>
+      <c r="H25">
+        <v>-0.03488145611793125</v>
+      </c>
+      <c r="I25">
+        <v>0.009173597628711054</v>
+      </c>
+      <c r="J25">
+        <v>0.02048831167115307</v>
+      </c>
+      <c r="K25">
+        <v>0.02275777621053856</v>
+      </c>
+      <c r="L25">
+        <v>-0.03260416757887483</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>-0.006051260418976245</v>
+        <v>0.02375065395328569</v>
       </c>
       <c r="C26">
-        <v>0.06084728875014062</v>
+        <v>0.05961299597271211</v>
       </c>
       <c r="D26">
-        <v>-0.05756393511161836</v>
+        <v>-0.06440188446595355</v>
       </c>
       <c r="E26">
-        <v>-0.02107741184535136</v>
+        <v>-0.00702181708329205</v>
       </c>
       <c r="F26">
-        <v>-0.00933318176929249</v>
+        <v>-0.01839690264710743</v>
       </c>
       <c r="G26">
-        <v>0.0420547438574753</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.003385494582171121</v>
+      </c>
+      <c r="H26">
+        <v>-0.1037524394487884</v>
+      </c>
+      <c r="I26">
+        <v>0.04768981436486532</v>
+      </c>
+      <c r="J26">
+        <v>-0.1136648076067336</v>
+      </c>
+      <c r="K26">
+        <v>0.04527775506433836</v>
+      </c>
+      <c r="L26">
+        <v>-0.05760800651165944</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1726,367 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>-0.373639047966109</v>
+        <v>0.3180548018404191</v>
       </c>
       <c r="C28">
-        <v>-0.116067584875759</v>
+        <v>-0.1083446366108167</v>
       </c>
       <c r="D28">
-        <v>0.03312030702039104</v>
+        <v>0.03293820969728594</v>
       </c>
       <c r="E28">
-        <v>0.1002388867438058</v>
+        <v>0.02012169536744818</v>
       </c>
       <c r="F28">
-        <v>-0.04923256076587361</v>
+        <v>0.03878479545311826</v>
       </c>
       <c r="G28">
-        <v>-0.00624656717063886</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.1226229255932389</v>
+      </c>
+      <c r="H28">
+        <v>-0.06348015601058754</v>
+      </c>
+      <c r="I28">
+        <v>-0.2261893065479186</v>
+      </c>
+      <c r="J28">
+        <v>-0.004679021159415543</v>
+      </c>
+      <c r="K28">
+        <v>-0.004203832036737516</v>
+      </c>
+      <c r="L28">
+        <v>-0.03118103783699284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>-0.006926709004830309</v>
+        <v>0.01279438682822224</v>
       </c>
       <c r="C29">
-        <v>0.07356229882153356</v>
+        <v>0.08016416273655469</v>
       </c>
       <c r="D29">
-        <v>-0.04562046175654143</v>
+        <v>-0.05519917650982654</v>
       </c>
       <c r="E29">
-        <v>-0.04511588138973679</v>
+        <v>0.05510155031953949</v>
       </c>
       <c r="F29">
-        <v>0.004599499062672516</v>
+        <v>-0.009190265955632744</v>
       </c>
       <c r="G29">
-        <v>0.09308000915883294</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1159271518675971</v>
+      </c>
+      <c r="H29">
+        <v>-0.2939286041042425</v>
+      </c>
+      <c r="I29">
+        <v>0.03539579509152193</v>
+      </c>
+      <c r="J29">
+        <v>0.1759955897188356</v>
+      </c>
+      <c r="K29">
+        <v>-0.03836598915612335</v>
+      </c>
+      <c r="L29">
+        <v>0.2981437514858502</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>-0.03493085018762584</v>
+        <v>0.03018473060555091</v>
       </c>
       <c r="C30">
-        <v>0.1714083552696633</v>
+        <v>0.1428915747005721</v>
       </c>
       <c r="D30">
-        <v>-0.05623172634478734</v>
+        <v>-0.05700311404964085</v>
       </c>
       <c r="E30">
-        <v>-0.05708607123259492</v>
+        <v>0.0001397242096676601</v>
       </c>
       <c r="F30">
-        <v>0.04768663810996282</v>
+        <v>0.06739833247760629</v>
       </c>
       <c r="G30">
-        <v>-0.006546305584898234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01266035354343656</v>
+      </c>
+      <c r="H30">
+        <v>-0.02727203738129394</v>
+      </c>
+      <c r="I30">
+        <v>0.04648872413619382</v>
+      </c>
+      <c r="J30">
+        <v>-0.09115064979838944</v>
+      </c>
+      <c r="K30">
+        <v>-0.0005365491876584862</v>
+      </c>
+      <c r="L30">
+        <v>-0.02202376004063413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>0.002265760858428611</v>
+        <v>0.01308177480466031</v>
       </c>
       <c r="C31">
-        <v>0.06473275133770937</v>
+        <v>0.0821775017720125</v>
       </c>
       <c r="D31">
-        <v>-0.03865513685515028</v>
+        <v>-0.04194222311021211</v>
       </c>
       <c r="E31">
-        <v>0.01298388958178961</v>
+        <v>0.0003913843133525825</v>
       </c>
       <c r="F31">
-        <v>-0.008566104632062177</v>
+        <v>-0.003810892706569232</v>
       </c>
       <c r="G31">
-        <v>0.01684246820056968</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.0282302404987764</v>
+      </c>
+      <c r="H31">
+        <v>-0.03530349870052761</v>
+      </c>
+      <c r="I31">
+        <v>0.01583545718357214</v>
+      </c>
+      <c r="J31">
+        <v>0.03479344511579987</v>
+      </c>
+      <c r="K31">
+        <v>0.0179597352760108</v>
+      </c>
+      <c r="L31">
+        <v>-0.04062348255254753</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>-0.02013949989348216</v>
+        <v>0.0220176141736388</v>
       </c>
       <c r="C32">
-        <v>0.08316448702456614</v>
+        <v>0.05640070655017802</v>
       </c>
       <c r="D32">
-        <v>0.008806765810240457</v>
+        <v>-0.01852491185952942</v>
       </c>
       <c r="E32">
-        <v>-0.1624606277102542</v>
+        <v>0.08764301528551055</v>
       </c>
       <c r="F32">
-        <v>-0.004249936608530918</v>
+        <v>0.07972560137219378</v>
       </c>
       <c r="G32">
-        <v>0.06107670865024536</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.07134704555447398</v>
+      </c>
+      <c r="H32">
+        <v>-0.1686986900188544</v>
+      </c>
+      <c r="I32">
+        <v>-0.2356566734582955</v>
+      </c>
+      <c r="J32">
+        <v>0.03129326594823266</v>
+      </c>
+      <c r="K32">
+        <v>-0.1288198174789557</v>
+      </c>
+      <c r="L32">
+        <v>0.1330717906561448</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>-0.01428436700016262</v>
+        <v>0.01631553897487413</v>
       </c>
       <c r="C33">
-        <v>0.09276207583512315</v>
+        <v>0.1069482440049149</v>
       </c>
       <c r="D33">
-        <v>-0.05878379236928633</v>
+        <v>-0.04818721684868576</v>
       </c>
       <c r="E33">
-        <v>-0.01918961128381761</v>
+        <v>-0.005519110612157508</v>
       </c>
       <c r="F33">
-        <v>0.003251248208438591</v>
+        <v>0.0122386562064869</v>
       </c>
       <c r="G33">
-        <v>0.03355983602273972</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.02397309891036943</v>
+      </c>
+      <c r="H33">
+        <v>-0.05890797304312539</v>
+      </c>
+      <c r="I33">
+        <v>-0.0120146577139579</v>
+      </c>
+      <c r="J33">
+        <v>-0.001507631255477944</v>
+      </c>
+      <c r="K33">
+        <v>0.02366036142385957</v>
+      </c>
+      <c r="L33">
+        <v>-0.01881557255770938</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>-0.004380024537576608</v>
+        <v>0.01623284389185187</v>
       </c>
       <c r="C34">
-        <v>0.05120826230183848</v>
+        <v>0.05126122119101988</v>
       </c>
       <c r="D34">
-        <v>-0.02297590516720923</v>
+        <v>-0.02128587928932519</v>
       </c>
       <c r="E34">
-        <v>-0.002271519259460546</v>
+        <v>0.0003719436123540415</v>
       </c>
       <c r="F34">
-        <v>-0.001946531758925061</v>
+        <v>-0.01070125923536584</v>
       </c>
       <c r="G34">
-        <v>0.04119898401088595</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01632808698576221</v>
+      </c>
+      <c r="H34">
+        <v>-0.00922969549781843</v>
+      </c>
+      <c r="I34">
+        <v>0.01367272520584676</v>
+      </c>
+      <c r="J34">
+        <v>0.005873929331921211</v>
+      </c>
+      <c r="K34">
+        <v>0.02435180178909933</v>
+      </c>
+      <c r="L34">
+        <v>-0.04058076338435735</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>-0.002309761559272659</v>
+        <v>0.009311028895726761</v>
       </c>
       <c r="C35">
-        <v>0.01850193990567345</v>
+        <v>0.04082817676755162</v>
       </c>
       <c r="D35">
-        <v>-0.006992335025558151</v>
+        <v>-0.0217174754603314</v>
       </c>
       <c r="E35">
-        <v>-0.01294337204463592</v>
+        <v>0.01410311727682838</v>
       </c>
       <c r="F35">
-        <v>0.007024396353117407</v>
+        <v>0.001776629548284108</v>
       </c>
       <c r="G35">
-        <v>0.02578792626129239</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.04732815574308109</v>
+      </c>
+      <c r="H35">
+        <v>-0.149679868429193</v>
+      </c>
+      <c r="I35">
+        <v>0.00502185763726899</v>
+      </c>
+      <c r="J35">
+        <v>0.1350945957745644</v>
+      </c>
+      <c r="K35">
+        <v>0.02318102492944408</v>
+      </c>
+      <c r="L35">
+        <v>0.1769501670987401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>-0.006353255499695156</v>
+        <v>0.01546286918686329</v>
       </c>
       <c r="C36">
-        <v>0.05413869912823137</v>
+        <v>0.04950944273664725</v>
       </c>
       <c r="D36">
-        <v>-0.05189643963018659</v>
+        <v>-0.04912106647546598</v>
       </c>
       <c r="E36">
-        <v>-0.01167546105976855</v>
+        <v>0.002704404772062383</v>
       </c>
       <c r="F36">
-        <v>-0.006290835075782587</v>
+        <v>0.0004614793203928957</v>
       </c>
       <c r="G36">
-        <v>0.02048920059511695</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.002056448735170394</v>
+      </c>
+      <c r="H36">
+        <v>-0.07355818787621117</v>
+      </c>
+      <c r="I36">
+        <v>0.01667187914882456</v>
+      </c>
+      <c r="J36">
+        <v>-0.03930407166374454</v>
+      </c>
+      <c r="K36">
+        <v>0.01974416666730579</v>
+      </c>
+      <c r="L36">
+        <v>-0.05657730668936291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +2106,177 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>-0.03116518319511754</v>
+        <v>0.01257139606544898</v>
       </c>
       <c r="C38">
-        <v>0.05874122810244948</v>
+        <v>0.06403642828144387</v>
       </c>
       <c r="D38">
-        <v>-0.04247568065300279</v>
+        <v>-0.04169949666446451</v>
       </c>
       <c r="E38">
-        <v>0.001006212984983928</v>
+        <v>-0.02812496438878623</v>
       </c>
       <c r="F38">
-        <v>0.008484432379310715</v>
+        <v>0.01326610405720379</v>
       </c>
       <c r="G38">
-        <v>0.008368848336066726</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.005995355343063224</v>
+      </c>
+      <c r="H38">
+        <v>-0.08321650533542141</v>
+      </c>
+      <c r="I38">
+        <v>-0.05731824677357026</v>
+      </c>
+      <c r="J38">
+        <v>0.03795361796815423</v>
+      </c>
+      <c r="K38">
+        <v>0.01036346334952791</v>
+      </c>
+      <c r="L38">
+        <v>-0.1058370684238609</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>-0.004654465011536483</v>
+        <v>0.01630002575718299</v>
       </c>
       <c r="C39">
-        <v>0.1308964308586041</v>
+        <v>0.1271836714819914</v>
       </c>
       <c r="D39">
-        <v>-0.03922081192521084</v>
+        <v>-0.05495428303479945</v>
       </c>
       <c r="E39">
-        <v>-0.02062617795681933</v>
+        <v>0.003770583285468223</v>
       </c>
       <c r="F39">
-        <v>0.03587999784480201</v>
+        <v>-1.125730698952109e-05</v>
       </c>
       <c r="G39">
-        <v>0.07332447259770469</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04137482080076489</v>
+      </c>
+      <c r="H39">
+        <v>-0.04802883711467337</v>
+      </c>
+      <c r="I39">
+        <v>0.07145736245196832</v>
+      </c>
+      <c r="J39">
+        <v>-0.0136846004423702</v>
+      </c>
+      <c r="K39">
+        <v>-0.009106017115491079</v>
+      </c>
+      <c r="L39">
+        <v>-0.08283517974417287</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>-0.006779400803604283</v>
+        <v>0.01337917423977953</v>
       </c>
       <c r="C40">
-        <v>0.02664056754872194</v>
+        <v>0.06189664346631939</v>
       </c>
       <c r="D40">
-        <v>-0.02710858409985667</v>
+        <v>-0.03850974308205456</v>
       </c>
       <c r="E40">
-        <v>-0.1317082806116529</v>
+        <v>0.03431380498419118</v>
       </c>
       <c r="F40">
-        <v>0.05057933605469612</v>
+        <v>0.03469354380324046</v>
       </c>
       <c r="G40">
-        <v>0.06937965869222359</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.1463473404665176</v>
+      </c>
+      <c r="H40">
+        <v>-0.03799432501201578</v>
+      </c>
+      <c r="I40">
+        <v>-0.01620178967575455</v>
+      </c>
+      <c r="J40">
+        <v>0.2383679872379882</v>
+      </c>
+      <c r="K40">
+        <v>0.1245471831808293</v>
+      </c>
+      <c r="L40">
+        <v>-0.03217919438342168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>-0.008466583608773722</v>
+        <v>0.02051806391100844</v>
       </c>
       <c r="C41">
-        <v>0.01693292564100591</v>
+        <v>0.046164338821755</v>
       </c>
       <c r="D41">
-        <v>-0.004173741033322655</v>
+        <v>-0.01743480050006488</v>
       </c>
       <c r="E41">
-        <v>0.02405411463722699</v>
+        <v>-0.01002089523692587</v>
       </c>
       <c r="F41">
-        <v>-0.02305513503147751</v>
+        <v>-0.02411563712242056</v>
       </c>
       <c r="G41">
-        <v>-0.03239466361588487</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.009472122305795755</v>
+      </c>
+      <c r="H41">
+        <v>-0.02630458433486605</v>
+      </c>
+      <c r="I41">
+        <v>-0.03238419136675751</v>
+      </c>
+      <c r="J41">
+        <v>0.05219778499322479</v>
+      </c>
+      <c r="K41">
+        <v>0.01321298029139422</v>
+      </c>
+      <c r="L41">
+        <v>-0.01123146431009601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2296,101 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>-0.001174879843302333</v>
+        <v>0.01682656033205852</v>
       </c>
       <c r="C43">
-        <v>0.01580542574611363</v>
+        <v>0.04314298664269497</v>
       </c>
       <c r="D43">
-        <v>-0.00941513123049203</v>
+        <v>-0.03015262660994371</v>
       </c>
       <c r="E43">
-        <v>0.006641241485134835</v>
+        <v>-0.01584296838422371</v>
       </c>
       <c r="F43">
-        <v>0.009863645306987141</v>
+        <v>-0.006852821814339939</v>
       </c>
       <c r="G43">
-        <v>-0.007918748256407815</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.002585693027774094</v>
+      </c>
+      <c r="H43">
+        <v>-0.04494566956495225</v>
+      </c>
+      <c r="I43">
+        <v>-0.004524630854662285</v>
+      </c>
+      <c r="J43">
+        <v>0.04418443055490084</v>
+      </c>
+      <c r="K43">
+        <v>0.000105416047509708</v>
+      </c>
+      <c r="L43">
+        <v>-0.01726215021411074</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>-0.02366698321979691</v>
+        <v>0.01185087529321613</v>
       </c>
       <c r="C44">
-        <v>0.09869603659609368</v>
+        <v>0.09482873630323725</v>
       </c>
       <c r="D44">
-        <v>-0.02424901447781747</v>
+        <v>-0.05691286396173945</v>
       </c>
       <c r="E44">
-        <v>-0.06117326618989991</v>
+        <v>-0.007992021318653118</v>
       </c>
       <c r="F44">
-        <v>0.05397040176835325</v>
+        <v>0.06497264108949095</v>
       </c>
       <c r="G44">
-        <v>0.01633792835890137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04245025521996062</v>
+      </c>
+      <c r="H44">
+        <v>-0.05085731893967295</v>
+      </c>
+      <c r="I44">
+        <v>0.05430735175638648</v>
+      </c>
+      <c r="J44">
+        <v>-0.06519882383571914</v>
+      </c>
+      <c r="K44">
+        <v>-0.01620466079735763</v>
+      </c>
+      <c r="L44">
+        <v>0.00765375342699562</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2410,253 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>0.0070074862463855</v>
+        <v>0.003095069682503386</v>
       </c>
       <c r="C46">
-        <v>0.07061552183990522</v>
+        <v>0.06441705070318306</v>
       </c>
       <c r="D46">
-        <v>-0.04494215297264124</v>
+        <v>-0.03130975424694441</v>
       </c>
       <c r="E46">
-        <v>-0.03164813242758863</v>
+        <v>0.008556180268876048</v>
       </c>
       <c r="F46">
-        <v>0.01207295827016833</v>
+        <v>-0.01466665882099522</v>
       </c>
       <c r="G46">
-        <v>0.05724897128964184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.03680276639088655</v>
+      </c>
+      <c r="H46">
+        <v>-0.1043711114549264</v>
+      </c>
+      <c r="I46">
+        <v>0.006601152000603269</v>
+      </c>
+      <c r="J46">
+        <v>0.07814269081494395</v>
+      </c>
+      <c r="K46">
+        <v>-0.002536960805115384</v>
+      </c>
+      <c r="L46">
+        <v>0.04707083768624769</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>-0.01327045427547322</v>
+        <v>0.02419659821781226</v>
       </c>
       <c r="C47">
-        <v>0.08941417421429357</v>
+        <v>0.08414694152515163</v>
       </c>
       <c r="D47">
-        <v>-0.04470116200913378</v>
+        <v>-0.0461797505264593</v>
       </c>
       <c r="E47">
-        <v>0.0194080616368656</v>
+        <v>0.004419499769847385</v>
       </c>
       <c r="F47">
-        <v>-0.02631526575396033</v>
+        <v>-0.02187409883127105</v>
       </c>
       <c r="G47">
-        <v>0.05882799422025446</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.007061868445095707</v>
+      </c>
+      <c r="H47">
+        <v>-0.07152543720602395</v>
+      </c>
+      <c r="I47">
+        <v>-0.02369207720118768</v>
+      </c>
+      <c r="J47">
+        <v>0.03625852491585274</v>
+      </c>
+      <c r="K47">
+        <v>0.007728706626835067</v>
+      </c>
+      <c r="L47">
+        <v>-0.04655638241646395</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>-0.0121690630594228</v>
+        <v>0.02161579346964467</v>
       </c>
       <c r="C48">
-        <v>0.05122879371379431</v>
+        <v>0.05225790896670917</v>
       </c>
       <c r="D48">
-        <v>-0.06075827165784892</v>
+        <v>-0.0565011516302831</v>
       </c>
       <c r="E48">
-        <v>-0.009990490153058926</v>
+        <v>-0.006545612200518075</v>
       </c>
       <c r="F48">
-        <v>0.001862106892801253</v>
+        <v>-0.004014326370821884</v>
       </c>
       <c r="G48">
-        <v>0.02593302047452583</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.0005299421520533034</v>
+      </c>
+      <c r="H48">
+        <v>-0.1003669504255008</v>
+      </c>
+      <c r="I48">
+        <v>0.03359272809211269</v>
+      </c>
+      <c r="J48">
+        <v>-0.09136541111216837</v>
+      </c>
+      <c r="K48">
+        <v>0.02733409214261182</v>
+      </c>
+      <c r="L48">
+        <v>-0.06770929784682427</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.00625182964325117</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.02420931469849527</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.0009109424493196816</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.01604854497237476</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.02983106277361312</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.03113403577685868</v>
+      </c>
+      <c r="H49">
+        <v>0.02317698168364239</v>
+      </c>
+      <c r="I49">
+        <v>0.04710094332296913</v>
+      </c>
+      <c r="J49">
+        <v>-0.03103283405000504</v>
+      </c>
+      <c r="K49">
+        <v>0.04606228758814696</v>
+      </c>
+      <c r="L49">
+        <v>0.005348669984902387</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>0.0004407074012335898</v>
+        <v>0.0132818233756289</v>
       </c>
       <c r="C50">
-        <v>0.0770692767301617</v>
+        <v>0.08073546659272564</v>
       </c>
       <c r="D50">
-        <v>-0.03012551581709974</v>
+        <v>-0.02943035677728191</v>
       </c>
       <c r="E50">
-        <v>-0.001794336857974041</v>
+        <v>-0.002037102080276242</v>
       </c>
       <c r="F50">
-        <v>0.005844808835970113</v>
+        <v>0.001103502224051591</v>
       </c>
       <c r="G50">
-        <v>0.008287743143868652</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.01392689709712187</v>
+      </c>
+      <c r="H50">
+        <v>-0.05751626332656264</v>
+      </c>
+      <c r="I50">
+        <v>-0.03614259693805708</v>
+      </c>
+      <c r="J50">
+        <v>0.0240217160046339</v>
+      </c>
+      <c r="K50">
+        <v>0.006665580064932573</v>
+      </c>
+      <c r="L50">
+        <v>-0.02171152658161239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>-0.0008718462881312411</v>
+        <v>-0.006955748906023217</v>
       </c>
       <c r="C51">
-        <v>0.08145546358047581</v>
+        <v>0.040504866495391</v>
       </c>
       <c r="D51">
-        <v>-0.006432990905514308</v>
+        <v>-0.02354337283148502</v>
       </c>
       <c r="E51">
-        <v>-0.08023874869526873</v>
+        <v>0.01560279715763788</v>
       </c>
       <c r="F51">
-        <v>0.04338247512121697</v>
+        <v>0.02722727347699474</v>
       </c>
       <c r="G51">
-        <v>0.01417127879722923</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.02907354262464356</v>
+      </c>
+      <c r="H51">
+        <v>-0.0932642170153135</v>
+      </c>
+      <c r="I51">
+        <v>0.02034388190170681</v>
+      </c>
+      <c r="J51">
+        <v>-0.1190564599829231</v>
+      </c>
+      <c r="K51">
+        <v>-0.006658864640997777</v>
+      </c>
+      <c r="L51">
+        <v>0.01255002419033011</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2676,177 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>-0.04623144691624833</v>
+        <v>0.05794840620110919</v>
       </c>
       <c r="C53">
-        <v>0.13334943209311</v>
+        <v>0.1320109643366179</v>
       </c>
       <c r="D53">
-        <v>-0.06822260668457235</v>
+        <v>-0.05727418649405785</v>
       </c>
       <c r="E53">
-        <v>0.1299464653192239</v>
+        <v>-0.00586017153159767</v>
       </c>
       <c r="F53">
-        <v>-0.03823363288239511</v>
+        <v>-0.06943103421456817</v>
       </c>
       <c r="G53">
-        <v>-0.02006539775769704</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.08470200536987227</v>
+      </c>
+      <c r="H53">
+        <v>0.02751181357708951</v>
+      </c>
+      <c r="I53">
+        <v>-0.04542849285864536</v>
+      </c>
+      <c r="J53">
+        <v>0.0124935711752402</v>
+      </c>
+      <c r="K53">
+        <v>0.0282517475300394</v>
+      </c>
+      <c r="L53">
+        <v>-0.1103217434161661</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>-0.007604665668621124</v>
+        <v>0.01756055150710801</v>
       </c>
       <c r="C54">
-        <v>0.06910465964831607</v>
+        <v>0.07591465410044174</v>
       </c>
       <c r="D54">
-        <v>-0.01079243371925239</v>
+        <v>-0.01219576963968023</v>
       </c>
       <c r="E54">
-        <v>0.01607586012403321</v>
+        <v>0.001812801554322604</v>
       </c>
       <c r="F54">
-        <v>0.009252512373836636</v>
+        <v>-0.02097461102999883</v>
       </c>
       <c r="G54">
-        <v>0.03045607653587208</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.02056164344738812</v>
+      </c>
+      <c r="H54">
+        <v>-0.05648532257803156</v>
+      </c>
+      <c r="I54">
+        <v>0.0273904360213328</v>
+      </c>
+      <c r="J54">
+        <v>0.008279190774887023</v>
+      </c>
+      <c r="K54">
+        <v>0.009120371256793382</v>
+      </c>
+      <c r="L54">
+        <v>0.00701500554540409</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>-0.02854663381505175</v>
+        <v>0.0331307273398198</v>
       </c>
       <c r="C55">
-        <v>0.09360396035949713</v>
+        <v>0.08869837582130362</v>
       </c>
       <c r="D55">
-        <v>-0.0650786298553237</v>
+        <v>-0.05477042597634409</v>
       </c>
       <c r="E55">
-        <v>0.06256970751380515</v>
+        <v>-0.01015927152482396</v>
       </c>
       <c r="F55">
-        <v>-0.03552146156642204</v>
+        <v>-0.05339159914719418</v>
       </c>
       <c r="G55">
-        <v>0.01263138716431204</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.0439600350688904</v>
+      </c>
+      <c r="H55">
+        <v>0.0151578961779377</v>
+      </c>
+      <c r="I55">
+        <v>0.01076574307713406</v>
+      </c>
+      <c r="J55">
+        <v>0.004047233697794553</v>
+      </c>
+      <c r="K55">
+        <v>0.01941331861095841</v>
+      </c>
+      <c r="L55">
+        <v>-0.06243697426320344</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>-0.0356894744980918</v>
+        <v>0.0465535144699782</v>
       </c>
       <c r="C56">
-        <v>0.1686024144867387</v>
+        <v>0.1546224162637459</v>
       </c>
       <c r="D56">
-        <v>-0.06222683679830197</v>
+        <v>-0.07956089480978622</v>
       </c>
       <c r="E56">
-        <v>0.1348965194750454</v>
+        <v>0.01223077789229759</v>
       </c>
       <c r="F56">
-        <v>-0.09145029605355909</v>
+        <v>-0.09725515602790463</v>
       </c>
       <c r="G56">
-        <v>-0.04701743629167852</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1588534031536695</v>
+      </c>
+      <c r="H56">
+        <v>0.04372149500853565</v>
+      </c>
+      <c r="I56">
+        <v>-0.02429422269444657</v>
+      </c>
+      <c r="J56">
+        <v>-0.02796178687234894</v>
+      </c>
+      <c r="K56">
+        <v>0.02689435834117441</v>
+      </c>
+      <c r="L56">
+        <v>-0.06101848117347869</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2866,481 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>-0.02850049053105684</v>
+        <v>0.0187466950796672</v>
       </c>
       <c r="C58">
-        <v>0.2729784341811943</v>
+        <v>0.1777693623171561</v>
       </c>
       <c r="D58">
-        <v>0.06884774508592466</v>
+        <v>-0.03703839235792622</v>
       </c>
       <c r="E58">
-        <v>-0.2602783415833509</v>
+        <v>0.02480072425772779</v>
       </c>
       <c r="F58">
-        <v>0.2291747845856452</v>
+        <v>0.3321360554079182</v>
       </c>
       <c r="G58">
-        <v>-0.2590058262275423</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.0514277684733374</v>
+      </c>
+      <c r="H58">
+        <v>-0.0361821138729337</v>
+      </c>
+      <c r="I58">
+        <v>-0.01240859728476986</v>
+      </c>
+      <c r="J58">
+        <v>-0.4083045900770196</v>
+      </c>
+      <c r="K58">
+        <v>-0.2143448834426337</v>
+      </c>
+      <c r="L58">
+        <v>0.2093553093880367</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>-0.2767013353050566</v>
+        <v>0.2877488642471188</v>
       </c>
       <c r="C59">
-        <v>-0.01126274833694759</v>
+        <v>-0.04277059544756662</v>
       </c>
       <c r="D59">
-        <v>0.04562053120006113</v>
+        <v>0.00750289385346051</v>
       </c>
       <c r="E59">
-        <v>-0.04705766626717743</v>
+        <v>0.03206213763446458</v>
       </c>
       <c r="F59">
-        <v>-0.03895622034652648</v>
+        <v>0.03753351901010161</v>
       </c>
       <c r="G59">
-        <v>0.02384749746633123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.004510936710552782</v>
+      </c>
+      <c r="H59">
+        <v>0.02129064856317029</v>
+      </c>
+      <c r="I59">
+        <v>-0.02854345060977941</v>
+      </c>
+      <c r="J59">
+        <v>0.02004831588545526</v>
+      </c>
+      <c r="K59">
+        <v>0.01259029731992093</v>
+      </c>
+      <c r="L59">
+        <v>-0.01754488298255931</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>-0.1234292301542664</v>
+        <v>0.1493672643174958</v>
       </c>
       <c r="C60">
-        <v>0.1506148693239358</v>
+        <v>0.1583916756293137</v>
       </c>
       <c r="D60">
-        <v>-0.06835243425178683</v>
+        <v>-0.04614911195943637</v>
       </c>
       <c r="E60">
-        <v>0.06521285379911539</v>
+        <v>0.01376899495192191</v>
       </c>
       <c r="F60">
-        <v>0.02042257701162139</v>
+        <v>-0.1297371133001787</v>
       </c>
       <c r="G60">
-        <v>0.2969849629046366</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.2498892259639627</v>
+      </c>
+      <c r="H60">
+        <v>0.2305598393885306</v>
+      </c>
+      <c r="I60">
+        <v>0.02030030140098708</v>
+      </c>
+      <c r="J60">
+        <v>-0.005900741157204615</v>
+      </c>
+      <c r="K60">
+        <v>-0.03449052223133574</v>
+      </c>
+      <c r="L60">
+        <v>0.1089302945362791</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>-0.004190559516833356</v>
+        <v>0.01957791212970613</v>
       </c>
       <c r="C61">
-        <v>0.08786564120146011</v>
+        <v>0.0970502448290306</v>
       </c>
       <c r="D61">
-        <v>-0.05048961835822674</v>
+        <v>-0.05205455764288598</v>
       </c>
       <c r="E61">
-        <v>0.01757663048142818</v>
+        <v>0.001656469618247208</v>
       </c>
       <c r="F61">
-        <v>0.008389357186641596</v>
+        <v>-0.03271520112060253</v>
       </c>
       <c r="G61">
-        <v>0.07624340509657661</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02353607204986738</v>
+      </c>
+      <c r="H61">
+        <v>-0.06300704949004085</v>
+      </c>
+      <c r="I61">
+        <v>0.03292994049084561</v>
+      </c>
+      <c r="J61">
+        <v>0.01622111139261696</v>
+      </c>
+      <c r="K61">
+        <v>0.02999451215318582</v>
+      </c>
+      <c r="L61">
+        <v>-0.0481537577756937</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002296682440521633</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01246429024917792</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.003388867631087572</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.004181696957409352</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.01070025566409697</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.01386455606869535</v>
+      </c>
+      <c r="H62">
+        <v>-0.006893807332638643</v>
+      </c>
+      <c r="I62">
+        <v>0.0002717741978425648</v>
+      </c>
+      <c r="J62">
+        <v>-0.006719360121463244</v>
+      </c>
+      <c r="K62">
+        <v>0.05415725691993058</v>
+      </c>
+      <c r="L62">
+        <v>0.07142639296889786</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>0.003814134001393933</v>
+        <v>0.02548180237815883</v>
       </c>
       <c r="C63">
-        <v>0.0698501127889613</v>
+        <v>0.07113465757209313</v>
       </c>
       <c r="D63">
-        <v>-0.03878550581198787</v>
+        <v>-0.06042579336558521</v>
       </c>
       <c r="E63">
-        <v>0.02101278885776405</v>
+        <v>0.002832879233441296</v>
       </c>
       <c r="F63">
-        <v>0.01168280856121861</v>
+        <v>-0.02005141206217865</v>
       </c>
       <c r="G63">
-        <v>0.03195877290133323</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.004762153728139725</v>
+      </c>
+      <c r="H63">
+        <v>-0.06454843085309754</v>
+      </c>
+      <c r="I63">
+        <v>0.01465037498218237</v>
+      </c>
+      <c r="J63">
+        <v>0.004538854679804999</v>
+      </c>
+      <c r="K63">
+        <v>0.05466705286592727</v>
+      </c>
+      <c r="L63">
+        <v>-0.04244279397855682</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>-0.006020979506812202</v>
+        <v>0.01440817213940385</v>
       </c>
       <c r="C64">
-        <v>0.07554198482831088</v>
+        <v>0.0872202547193454</v>
       </c>
       <c r="D64">
-        <v>-0.06549976932973317</v>
+        <v>-0.03375580905135356</v>
       </c>
       <c r="E64">
-        <v>-0.02214859717264703</v>
+        <v>-0.02986591147792796</v>
       </c>
       <c r="F64">
-        <v>0.03251347994895906</v>
+        <v>0.03892977350093397</v>
       </c>
       <c r="G64">
-        <v>0.05689763174461</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.07179915550610835</v>
+      </c>
+      <c r="H64">
+        <v>-0.04732698167749674</v>
+      </c>
+      <c r="I64">
+        <v>0.02820015516428414</v>
+      </c>
+      <c r="J64">
+        <v>0.0162330729111008</v>
+      </c>
+      <c r="K64">
+        <v>0.07295786981454012</v>
+      </c>
+      <c r="L64">
+        <v>-0.1146354774910791</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>-0.01383687373602908</v>
+        <v>0.02985231132715731</v>
       </c>
       <c r="C65">
-        <v>0.07848119064178774</v>
+        <v>0.09274121502851146</v>
       </c>
       <c r="D65">
-        <v>-0.03244366971960698</v>
+        <v>-0.01902730236317197</v>
       </c>
       <c r="E65">
-        <v>-0.03069447264489368</v>
+        <v>-0.02762235169618076</v>
       </c>
       <c r="F65">
-        <v>0.0263102008526896</v>
+        <v>0.006143869124955348</v>
       </c>
       <c r="G65">
-        <v>0.0190341884668711</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.09917786566129436</v>
+      </c>
+      <c r="H65">
+        <v>0.0006014175647268798</v>
+      </c>
+      <c r="I65">
+        <v>0.07034065736556948</v>
+      </c>
+      <c r="J65">
+        <v>-0.06607603676086776</v>
+      </c>
+      <c r="K65">
+        <v>-0.05971637650628057</v>
+      </c>
+      <c r="L65">
+        <v>-0.03997673371013444</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>-0.004840800440513932</v>
+        <v>0.0115348221446858</v>
       </c>
       <c r="C66">
-        <v>0.1672298345644199</v>
+        <v>0.1631067533862552</v>
       </c>
       <c r="D66">
-        <v>-0.02347370525305087</v>
+        <v>-0.04730141722994349</v>
       </c>
       <c r="E66">
-        <v>-0.05993444372933099</v>
+        <v>0.01631556128307868</v>
       </c>
       <c r="F66">
-        <v>0.02693697360510272</v>
+        <v>0.007893104248245747</v>
       </c>
       <c r="G66">
-        <v>0.088682640283065</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.02473424516104851</v>
+      </c>
+      <c r="H66">
+        <v>-0.06043049657018924</v>
+      </c>
+      <c r="I66">
+        <v>0.05418376154372658</v>
+      </c>
+      <c r="J66">
+        <v>-0.01910424351280362</v>
+      </c>
+      <c r="K66">
+        <v>0.01519043962104425</v>
+      </c>
+      <c r="L66">
+        <v>-0.04640584798839203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>-0.02998690059799546</v>
+        <v>0.02118922078988688</v>
       </c>
       <c r="C67">
-        <v>0.03509670014104123</v>
+        <v>0.0533760725101632</v>
       </c>
       <c r="D67">
-        <v>-0.06098912239740066</v>
+        <v>-0.04298988282361371</v>
       </c>
       <c r="E67">
-        <v>0.03797788548057854</v>
+        <v>-0.03071516692757445</v>
       </c>
       <c r="F67">
-        <v>0.001267692831619775</v>
+        <v>-0.02142094224231951</v>
       </c>
       <c r="G67">
-        <v>0.02460199593889615</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01931492490763084</v>
+      </c>
+      <c r="H67">
+        <v>-0.05898343158099447</v>
+      </c>
+      <c r="I67">
+        <v>-0.05180681139678912</v>
+      </c>
+      <c r="J67">
+        <v>0.06049408530307902</v>
+      </c>
+      <c r="K67">
+        <v>-0.009405578779329177</v>
+      </c>
+      <c r="L67">
+        <v>-0.09968517029741429</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>-0.2876974020512212</v>
+        <v>0.2950483286940106</v>
       </c>
       <c r="C68">
-        <v>-0.04571063479629243</v>
+        <v>-0.06727692414160495</v>
       </c>
       <c r="D68">
-        <v>0.03602752209957697</v>
+        <v>0.02752083447858268</v>
       </c>
       <c r="E68">
-        <v>-0.02793365502146181</v>
+        <v>0.01060498390326684</v>
       </c>
       <c r="F68">
-        <v>0.004849978631914799</v>
+        <v>0.02966097351086561</v>
       </c>
       <c r="G68">
-        <v>-0.01714157284435882</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02097312525694557</v>
+      </c>
+      <c r="H68">
+        <v>-0.0258582631634488</v>
+      </c>
+      <c r="I68">
+        <v>-0.03628939171882174</v>
+      </c>
+      <c r="J68">
+        <v>-0.0207518298221648</v>
+      </c>
+      <c r="K68">
+        <v>0.06163828633429037</v>
+      </c>
+      <c r="L68">
+        <v>0.02890284044716236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>-0.009415135101203951</v>
+        <v>0.006847237218030452</v>
       </c>
       <c r="C69">
-        <v>0.05576125688152114</v>
+        <v>0.05281257400251833</v>
       </c>
       <c r="D69">
-        <v>-0.04498299650906198</v>
+        <v>-0.02379505646511683</v>
       </c>
       <c r="E69">
-        <v>0.01251121443321439</v>
+        <v>0.000709263114047952</v>
       </c>
       <c r="F69">
-        <v>0.003733092999370913</v>
+        <v>-0.011250090529219</v>
       </c>
       <c r="G69">
-        <v>0.02152443528620863</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02614556338537641</v>
+      </c>
+      <c r="H69">
+        <v>-0.05018792690811977</v>
+      </c>
+      <c r="I69">
+        <v>-0.01728958110903334</v>
+      </c>
+      <c r="J69">
+        <v>0.009204423556598991</v>
+      </c>
+      <c r="K69">
+        <v>0.007579308483695493</v>
+      </c>
+      <c r="L69">
+        <v>-0.03877909004655541</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3360,975 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>-0.2782953802916474</v>
+        <v>0.2768511220549333</v>
       </c>
       <c r="C71">
-        <v>-0.05524957673782065</v>
+        <v>-0.07463573500623229</v>
       </c>
       <c r="D71">
-        <v>0.03822095764208861</v>
+        <v>0.02470246889702328</v>
       </c>
       <c r="E71">
-        <v>-0.02711196088366533</v>
+        <v>-0.007571619999923644</v>
       </c>
       <c r="F71">
-        <v>0.02969221524361481</v>
+        <v>0.06132955586530624</v>
       </c>
       <c r="G71">
-        <v>-0.006780260046043922</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01992344794487277</v>
+      </c>
+      <c r="H71">
+        <v>-0.05408386079877489</v>
+      </c>
+      <c r="I71">
+        <v>-0.1251721354350942</v>
+      </c>
+      <c r="J71">
+        <v>-0.04730208370389653</v>
+      </c>
+      <c r="K71">
+        <v>0.04244119299679305</v>
+      </c>
+      <c r="L71">
+        <v>-0.03211770294441928</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>-0.037662715782331</v>
+        <v>0.05447212944966599</v>
       </c>
       <c r="C72">
-        <v>0.1577698557193497</v>
+        <v>0.1415458225705172</v>
       </c>
       <c r="D72">
-        <v>-0.07001734050228293</v>
+        <v>-0.04516527315219025</v>
       </c>
       <c r="E72">
-        <v>-0.0252457503102332</v>
+        <v>-0.005730051677979948</v>
       </c>
       <c r="F72">
-        <v>0.0955567468646036</v>
+        <v>-0.0310477083968419</v>
       </c>
       <c r="G72">
-        <v>0.08976723730350689</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.02518676818077232</v>
+      </c>
+      <c r="H72">
+        <v>-0.02304796308185138</v>
+      </c>
+      <c r="I72">
+        <v>0.123269483839704</v>
+      </c>
+      <c r="J72">
+        <v>-0.04658501499674497</v>
+      </c>
+      <c r="K72">
+        <v>-0.05117770183657192</v>
+      </c>
+      <c r="L72">
+        <v>-0.06487190490285039</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>-0.07824605321724754</v>
+        <v>0.1498760461274379</v>
       </c>
       <c r="C73">
-        <v>0.1259924148833358</v>
+        <v>0.1945134692794627</v>
       </c>
       <c r="D73">
-        <v>-0.1065717843758224</v>
+        <v>-0.08071453454483397</v>
       </c>
       <c r="E73">
-        <v>0.138048134004803</v>
+        <v>-0.03065235094248496</v>
       </c>
       <c r="F73">
-        <v>0.05219277879992742</v>
+        <v>-0.249321180752612</v>
       </c>
       <c r="G73">
-        <v>0.4058486953848557</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.3828573837724539</v>
+      </c>
+      <c r="H73">
+        <v>0.3022020372744691</v>
+      </c>
+      <c r="I73">
+        <v>-0.08067355558098198</v>
+      </c>
+      <c r="J73">
+        <v>-0.05880647598228361</v>
+      </c>
+      <c r="K73">
+        <v>-0.0797606618632819</v>
+      </c>
+      <c r="L73">
+        <v>-0.001537947576100481</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>-0.02194128236194306</v>
+        <v>0.04033861481627726</v>
       </c>
       <c r="C74">
-        <v>0.1009716813412987</v>
+        <v>0.1040739238899037</v>
       </c>
       <c r="D74">
-        <v>-0.07203489571309574</v>
+        <v>-0.0470815676171471</v>
       </c>
       <c r="E74">
-        <v>0.07762746945407882</v>
+        <v>-0.01087963175518611</v>
       </c>
       <c r="F74">
-        <v>-0.05131567264022516</v>
+        <v>-0.0465987857991322</v>
       </c>
       <c r="G74">
-        <v>-0.01286654608598412</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.05185118544487159</v>
+      </c>
+      <c r="H74">
+        <v>0.001365956233708561</v>
+      </c>
+      <c r="I74">
+        <v>0.009499775294503257</v>
+      </c>
+      <c r="J74">
+        <v>-0.03531131834428622</v>
+      </c>
+      <c r="K74">
+        <v>0.05993769176227304</v>
+      </c>
+      <c r="L74">
+        <v>-0.04663285834003804</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>-0.06663197130546124</v>
+        <v>0.0634850417921724</v>
       </c>
       <c r="C75">
-        <v>0.1441227525751183</v>
+        <v>0.1660675588010035</v>
       </c>
       <c r="D75">
-        <v>-0.09403636754344932</v>
+        <v>-0.08590399307973014</v>
       </c>
       <c r="E75">
-        <v>0.1959463570275981</v>
+        <v>-0.07104887586055729</v>
       </c>
       <c r="F75">
-        <v>-0.07845512364821179</v>
+        <v>-0.1017038961284743</v>
       </c>
       <c r="G75">
-        <v>-0.1457365969800695</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.2265616879845938</v>
+      </c>
+      <c r="H75">
+        <v>0.03319006192189008</v>
+      </c>
+      <c r="I75">
+        <v>-0.1296971016093676</v>
+      </c>
+      <c r="J75">
+        <v>0.0509366712079956</v>
+      </c>
+      <c r="K75">
+        <v>0.09442058247538193</v>
+      </c>
+      <c r="L75">
+        <v>-0.05198598123467276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>-0.03040838493537277</v>
+        <v>0.04236050924875105</v>
       </c>
       <c r="C76">
-        <v>0.1123587615706865</v>
+        <v>0.1236541567880366</v>
       </c>
       <c r="D76">
-        <v>-0.06526677187960511</v>
+        <v>-0.07386784906081255</v>
       </c>
       <c r="E76">
-        <v>0.1001199505381731</v>
+        <v>-0.01728575910800221</v>
       </c>
       <c r="F76">
-        <v>-0.07177950176606628</v>
+        <v>-0.08179436926242432</v>
       </c>
       <c r="G76">
-        <v>-0.00360428570760014</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.08318887183429137</v>
+      </c>
+      <c r="H76">
+        <v>0.01399133854525856</v>
+      </c>
+      <c r="I76">
+        <v>0.0003389008956895426</v>
+      </c>
+      <c r="J76">
+        <v>0.01533827064155719</v>
+      </c>
+      <c r="K76">
+        <v>0.09573172752930853</v>
+      </c>
+      <c r="L76">
+        <v>-0.1066041095073152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>-0.07002680732528108</v>
+        <v>0.0464013006879108</v>
       </c>
       <c r="C77">
-        <v>0.3260448180365052</v>
+        <v>0.3960923866859439</v>
       </c>
       <c r="D77">
-        <v>0.8432117364716206</v>
+        <v>0.901129177170943</v>
       </c>
       <c r="E77">
-        <v>0.3248370289873598</v>
+        <v>-0.05883206909021275</v>
       </c>
       <c r="F77">
-        <v>0.03675116873391337</v>
+        <v>-0.07532891509770594</v>
       </c>
       <c r="G77">
-        <v>0.05027051652156245</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.03501313534952419</v>
+      </c>
+      <c r="H77">
+        <v>-0.05772024484252096</v>
+      </c>
+      <c r="I77">
+        <v>-0.001784872080631424</v>
+      </c>
+      <c r="J77">
+        <v>-0.004621659719337451</v>
+      </c>
+      <c r="K77">
+        <v>0.02735505982233507</v>
+      </c>
+      <c r="L77">
+        <v>0.01242447795254632</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>-0.03585084916236028</v>
+        <v>0.0331210778112252</v>
       </c>
       <c r="C78">
-        <v>0.1467739209544279</v>
+        <v>0.1125759715270565</v>
       </c>
       <c r="D78">
-        <v>-0.1003658548177441</v>
+        <v>-0.09802578647051138</v>
       </c>
       <c r="E78">
-        <v>-0.08298474054155652</v>
+        <v>0.04734245834746914</v>
       </c>
       <c r="F78">
-        <v>-0.1008080374420798</v>
+        <v>0.001960120793699005</v>
       </c>
       <c r="G78">
-        <v>-0.01764387589381668</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.1121744807447125</v>
+      </c>
+      <c r="H78">
+        <v>-0.05466867010416648</v>
+      </c>
+      <c r="I78">
+        <v>0.07242503133252585</v>
+      </c>
+      <c r="J78">
+        <v>-0.3989017560312033</v>
+      </c>
+      <c r="K78">
+        <v>-0.09625106388561938</v>
+      </c>
+      <c r="L78">
+        <v>-0.001648953568265199</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>-0.03829709960936216</v>
+        <v>0.05593881883857223</v>
       </c>
       <c r="C79">
-        <v>0.1799844787852219</v>
+        <v>0.142688499527179</v>
       </c>
       <c r="D79">
-        <v>-0.1228336093743403</v>
+        <v>-0.06847809008633722</v>
       </c>
       <c r="E79">
-        <v>0.1283327311878191</v>
+        <v>0.003016167602954711</v>
       </c>
       <c r="F79">
-        <v>-0.1488574729501475</v>
+        <v>-0.06880850801554558</v>
       </c>
       <c r="G79">
-        <v>-0.1329908548236123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.2369827823166132</v>
+      </c>
+      <c r="H79">
+        <v>0.005012953854843889</v>
+      </c>
+      <c r="I79">
+        <v>-0.0725941855660215</v>
+      </c>
+      <c r="J79">
+        <v>-0.08173318062717529</v>
+      </c>
+      <c r="K79">
+        <v>0.03860247503692164</v>
+      </c>
+      <c r="L79">
+        <v>-0.0422891638691214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>-0.01192806427828503</v>
+        <v>0.01995126541104093</v>
       </c>
       <c r="C80">
-        <v>0.04081607074283369</v>
+        <v>0.05126524905958364</v>
       </c>
       <c r="D80">
-        <v>-0.04968878452224368</v>
+        <v>-0.04002635040377316</v>
       </c>
       <c r="E80">
-        <v>0.007874844324283783</v>
+        <v>0.05194893883171866</v>
       </c>
       <c r="F80">
-        <v>-0.03331202652066719</v>
+        <v>0.01388146149854376</v>
       </c>
       <c r="G80">
-        <v>-0.002322134119830048</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.05502345092535359</v>
+      </c>
+      <c r="H80">
+        <v>0.03094740057010794</v>
+      </c>
+      <c r="I80">
+        <v>-0.04450492374959512</v>
+      </c>
+      <c r="J80">
+        <v>0.07591792873105144</v>
+      </c>
+      <c r="K80">
+        <v>0.02722165474946277</v>
+      </c>
+      <c r="L80">
+        <v>-0.06969803009130186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>-0.01363949133155931</v>
+        <v>0.01626741397796822</v>
       </c>
       <c r="C81">
-        <v>0.08477370941654984</v>
+        <v>0.09984511659447369</v>
       </c>
       <c r="D81">
-        <v>-0.08219886433254495</v>
+        <v>-0.05527615210799823</v>
       </c>
       <c r="E81">
-        <v>0.1084372434449611</v>
+        <v>0.001779154242470046</v>
       </c>
       <c r="F81">
-        <v>-0.08377867186070602</v>
+        <v>-0.0480318027193254</v>
       </c>
       <c r="G81">
-        <v>-0.03601474600448273</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1141936679580281</v>
+      </c>
+      <c r="H81">
+        <v>-0.04089693786827605</v>
+      </c>
+      <c r="I81">
+        <v>-0.05397765250811708</v>
+      </c>
+      <c r="J81">
+        <v>0.01469415223778095</v>
+      </c>
+      <c r="K81">
+        <v>0.06734390250579192</v>
+      </c>
+      <c r="L81">
+        <v>-0.07684925805198485</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>-0.03308407875708363</v>
+        <v>0.04672228568174337</v>
       </c>
       <c r="C82">
-        <v>0.09360451971719597</v>
+        <v>0.106312746042285</v>
       </c>
       <c r="D82">
-        <v>-0.07876307676175272</v>
+        <v>-0.0671446625874328</v>
       </c>
       <c r="E82">
-        <v>0.1169522777722926</v>
+        <v>-0.00765523692388483</v>
       </c>
       <c r="F82">
-        <v>-0.06050945659464671</v>
+        <v>-0.07195758529722698</v>
       </c>
       <c r="G82">
-        <v>-0.008133906800219901</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.09774984081139079</v>
+      </c>
+      <c r="H82">
+        <v>-0.004764032846673356</v>
+      </c>
+      <c r="I82">
+        <v>-0.01772831462076074</v>
+      </c>
+      <c r="J82">
+        <v>0.00015243620645811</v>
+      </c>
+      <c r="K82">
+        <v>0.06797392082444551</v>
+      </c>
+      <c r="L82">
+        <v>-0.1048056800954353</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>-0.003912854941451153</v>
+        <v>0.002624946174441836</v>
       </c>
       <c r="C83">
-        <v>0.04792168908165147</v>
+        <v>0.00101466074553788</v>
       </c>
       <c r="D83">
-        <v>0.1938852476709594</v>
+        <v>0.06358399441051898</v>
       </c>
       <c r="E83">
-        <v>-0.3959470356121418</v>
+        <v>0.9562710081639196</v>
       </c>
       <c r="F83">
-        <v>-0.8132672853601141</v>
+        <v>-0.08769856186894126</v>
       </c>
       <c r="G83">
-        <v>0.1582225230453762</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04935709560816354</v>
+      </c>
+      <c r="H83">
+        <v>0.09860535530907931</v>
+      </c>
+      <c r="I83">
+        <v>0.06742461242802586</v>
+      </c>
+      <c r="J83">
+        <v>-0.02054364222993663</v>
+      </c>
+      <c r="K83">
+        <v>0.05785892124405174</v>
+      </c>
+      <c r="L83">
+        <v>-0.07017322008688835</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>0.001834836062516902</v>
+        <v>-0.0003256519406093427</v>
       </c>
       <c r="C84">
-        <v>0.05451760999529735</v>
+        <v>0.04449606590756826</v>
       </c>
       <c r="D84">
-        <v>-0.03333841299953853</v>
+        <v>-0.06286966142213007</v>
       </c>
       <c r="E84">
-        <v>-0.09179650623915221</v>
+        <v>-0.005912523638733537</v>
       </c>
       <c r="F84">
-        <v>0.09403246322230337</v>
+        <v>0.1056412210037676</v>
       </c>
       <c r="G84">
-        <v>-0.09991690560791612</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.02995845275494868</v>
+      </c>
+      <c r="H84">
+        <v>-0.07724220439949879</v>
+      </c>
+      <c r="I84">
+        <v>0.1188737847028017</v>
+      </c>
+      <c r="J84">
+        <v>0.03419153463445159</v>
+      </c>
+      <c r="K84">
+        <v>0.07744435500514758</v>
+      </c>
+      <c r="L84">
+        <v>-0.0398671735476902</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>-0.02581913669036209</v>
+        <v>0.02902583228658438</v>
       </c>
       <c r="C85">
-        <v>0.1272318952635707</v>
+        <v>0.114171732128543</v>
       </c>
       <c r="D85">
-        <v>-0.08988946331588772</v>
+        <v>-0.08070981423925626</v>
       </c>
       <c r="E85">
-        <v>0.1344435050264919</v>
+        <v>-0.01909024274129731</v>
       </c>
       <c r="F85">
-        <v>-0.1126565353031479</v>
+        <v>-0.1261579010772112</v>
       </c>
       <c r="G85">
-        <v>-0.08956186530850274</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.2067541181798138</v>
+      </c>
+      <c r="H85">
+        <v>0.03758972721079121</v>
+      </c>
+      <c r="I85">
+        <v>-0.0760624057159385</v>
+      </c>
+      <c r="J85">
+        <v>-0.004579842215423938</v>
+      </c>
+      <c r="K85">
+        <v>0.1717482454886397</v>
+      </c>
+      <c r="L85">
+        <v>-0.09063608133792778</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>-0.02064524110061835</v>
+        <v>0.01552172164524629</v>
       </c>
       <c r="C86">
-        <v>0.07171522292714443</v>
+        <v>0.08249110601619165</v>
       </c>
       <c r="D86">
-        <v>0.02947486564681056</v>
+        <v>-0.02657776642779171</v>
       </c>
       <c r="E86">
-        <v>-0.0378387372091701</v>
+        <v>0.01526914330994593</v>
       </c>
       <c r="F86">
-        <v>0.07360690331019387</v>
+        <v>0.09082424541455701</v>
       </c>
       <c r="G86">
-        <v>0.02162806434639519</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.04476462522900093</v>
+      </c>
+      <c r="H86">
+        <v>-0.01866163437574801</v>
+      </c>
+      <c r="I86">
+        <v>-0.1390979647482707</v>
+      </c>
+      <c r="J86">
+        <v>-0.1332943399874053</v>
+      </c>
+      <c r="K86">
+        <v>-0.1456720274185095</v>
+      </c>
+      <c r="L86">
+        <v>-0.1051609798979693</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>-0.03987192436969386</v>
+        <v>0.02410852580565762</v>
       </c>
       <c r="C87">
-        <v>0.1495517103851124</v>
+        <v>0.115816128031649</v>
       </c>
       <c r="D87">
-        <v>-0.01942148100894234</v>
+        <v>-0.01721759582631644</v>
       </c>
       <c r="E87">
-        <v>-0.1201285300810945</v>
+        <v>0.007135104598414729</v>
       </c>
       <c r="F87">
-        <v>0.01658185256999191</v>
+        <v>0.07493038033622032</v>
       </c>
       <c r="G87">
-        <v>-0.0349649478226586</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.00399617685710345</v>
+      </c>
+      <c r="H87">
+        <v>-0.04129964874525296</v>
+      </c>
+      <c r="I87">
+        <v>0.09191005070090887</v>
+      </c>
+      <c r="J87">
+        <v>-0.08498073775870152</v>
+      </c>
+      <c r="K87">
+        <v>0.08283350205263211</v>
+      </c>
+      <c r="L87">
+        <v>0.0468382604477</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>-0.004945605078462493</v>
+        <v>0.03677083766184822</v>
       </c>
       <c r="C88">
-        <v>0.03416393301371976</v>
+        <v>0.06289139155350515</v>
       </c>
       <c r="D88">
-        <v>-0.04560987737035849</v>
+        <v>-0.04234359963641606</v>
       </c>
       <c r="E88">
-        <v>0.05555700762981066</v>
+        <v>-0.01830551858616465</v>
       </c>
       <c r="F88">
-        <v>0.01787036010916101</v>
+        <v>-0.0160583603901483</v>
       </c>
       <c r="G88">
-        <v>0.008848708981286896</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02576507979841623</v>
+      </c>
+      <c r="H88">
+        <v>-0.005260960757401627</v>
+      </c>
+      <c r="I88">
+        <v>-0.02632936551398245</v>
+      </c>
+      <c r="J88">
+        <v>0.07482728503677877</v>
+      </c>
+      <c r="K88">
+        <v>0.04455050987282342</v>
+      </c>
+      <c r="L88">
+        <v>-0.115381278359486</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>-0.3939638503047799</v>
+        <v>0.392226005700009</v>
       </c>
       <c r="C89">
-        <v>-0.09274784106886187</v>
+        <v>-0.1097482946304488</v>
       </c>
       <c r="D89">
-        <v>-0.09885727998703461</v>
+        <v>0.03438938644994934</v>
       </c>
       <c r="E89">
-        <v>-0.09186531138746577</v>
+        <v>-0.02714667598817695</v>
       </c>
       <c r="F89">
-        <v>-0.01234866969744836</v>
+        <v>0.06636232458057352</v>
       </c>
       <c r="G89">
-        <v>-0.08010653608910566</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.03408791464575116</v>
+      </c>
+      <c r="H89">
+        <v>-0.004964715775671878</v>
+      </c>
+      <c r="I89">
+        <v>0.7454071325928554</v>
+      </c>
+      <c r="J89">
+        <v>0.05422280850999599</v>
+      </c>
+      <c r="K89">
+        <v>-0.08583172772195385</v>
+      </c>
+      <c r="L89">
+        <v>-0.09260999559749469</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>-0.3054971315972282</v>
+        <v>0.3150630147710987</v>
       </c>
       <c r="C90">
-        <v>-0.03663766901573984</v>
+        <v>-0.07214838557180647</v>
       </c>
       <c r="D90">
-        <v>0.01839799362946246</v>
+        <v>0.01662132865044207</v>
       </c>
       <c r="E90">
-        <v>-0.07427871446097324</v>
+        <v>0.02257355284929621</v>
       </c>
       <c r="F90">
-        <v>-0.02915313914044957</v>
+        <v>0.03725842886443408</v>
       </c>
       <c r="G90">
-        <v>0.03201578758797528</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01100091231825814</v>
+      </c>
+      <c r="H90">
+        <v>-0.02128673271035264</v>
+      </c>
+      <c r="I90">
+        <v>-0.08444809014911858</v>
+      </c>
+      <c r="J90">
+        <v>-0.01635047085608042</v>
+      </c>
+      <c r="K90">
+        <v>0.004128503697468124</v>
+      </c>
+      <c r="L90">
+        <v>0.04017388930642082</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>-0.03504222901872248</v>
+        <v>0.05274518687273649</v>
       </c>
       <c r="C91">
-        <v>0.08939790978494307</v>
+        <v>0.08970433664137326</v>
       </c>
       <c r="D91">
-        <v>-0.04813314909593999</v>
+        <v>-0.04554965338727408</v>
       </c>
       <c r="E91">
-        <v>0.07212621873293376</v>
+        <v>0.01974246790082654</v>
       </c>
       <c r="F91">
-        <v>-0.07428400689867606</v>
+        <v>-0.05943687978752175</v>
       </c>
       <c r="G91">
-        <v>-0.03895087178408738</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.08010601294946888</v>
+      </c>
+      <c r="H91">
+        <v>0.02694351682662137</v>
+      </c>
+      <c r="I91">
+        <v>-0.002306601687135476</v>
+      </c>
+      <c r="J91">
+        <v>0.03972609145325191</v>
+      </c>
+      <c r="K91">
+        <v>0.02421798776709751</v>
+      </c>
+      <c r="L91">
+        <v>-0.03633974430567879</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>-0.3753050800344128</v>
+        <v>0.3538278045056573</v>
       </c>
       <c r="C92">
-        <v>-0.09704841679738249</v>
+        <v>-0.1198247971717736</v>
       </c>
       <c r="D92">
-        <v>0.02032274744092979</v>
+        <v>0.05345577919995809</v>
       </c>
       <c r="E92">
-        <v>0.0001127485949137153</v>
+        <v>-0.03395893237692176</v>
       </c>
       <c r="F92">
-        <v>0.1011293886818896</v>
+        <v>0.0651994470651986</v>
       </c>
       <c r="G92">
-        <v>-0.04386160456057656</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.00551622905286277</v>
+      </c>
+      <c r="H92">
+        <v>-0.07447366809112888</v>
+      </c>
+      <c r="I92">
+        <v>-0.1506291033353278</v>
+      </c>
+      <c r="J92">
+        <v>-0.009549052449590614</v>
+      </c>
+      <c r="K92">
+        <v>-0.01644421176531893</v>
+      </c>
+      <c r="L92">
+        <v>0.05264354322964245</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>-0.3002057079001356</v>
+        <v>0.3114285160848157</v>
       </c>
       <c r="C93">
-        <v>-0.0847780360561758</v>
+        <v>-0.1118969670640298</v>
       </c>
       <c r="D93">
-        <v>-0.01524712899371128</v>
+        <v>0.007176471975012901</v>
       </c>
       <c r="E93">
-        <v>-0.06525106823171524</v>
+        <v>0.007844501126898695</v>
       </c>
       <c r="F93">
-        <v>0.01238881071265933</v>
+        <v>0.04308347950981616</v>
       </c>
       <c r="G93">
-        <v>-0.02858196595118676</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03946240032790994</v>
+      </c>
+      <c r="H93">
+        <v>-0.03711853888249425</v>
+      </c>
+      <c r="I93">
+        <v>-0.1075821520542988</v>
+      </c>
+      <c r="J93">
+        <v>-0.009193422955288357</v>
+      </c>
+      <c r="K93">
+        <v>0.01065788456806852</v>
+      </c>
+      <c r="L93">
+        <v>-0.03873694606229592</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>-0.06192381320244245</v>
+        <v>0.07945144003880382</v>
       </c>
       <c r="C94">
-        <v>0.2076491854400467</v>
+        <v>0.1698508383964746</v>
       </c>
       <c r="D94">
-        <v>-0.1681876958132073</v>
+        <v>-0.1062616195198985</v>
       </c>
       <c r="E94">
-        <v>0.2907943977505347</v>
+        <v>-0.02254843740105514</v>
       </c>
       <c r="F94">
-        <v>-0.263320479040403</v>
+        <v>-0.1555358749334848</v>
       </c>
       <c r="G94">
-        <v>-0.5045213422224533</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.5438136532300253</v>
+      </c>
+      <c r="H94">
+        <v>0.2218141263352025</v>
+      </c>
+      <c r="I94">
+        <v>0.1310087488954965</v>
+      </c>
+      <c r="J94">
+        <v>0.268977607790383</v>
+      </c>
+      <c r="K94">
+        <v>-0.2333166891496252</v>
+      </c>
+      <c r="L94">
+        <v>0.474193713601358</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>-0.03980559778950404</v>
+        <v>0.03743863040518524</v>
       </c>
       <c r="C95">
-        <v>0.09745285901517965</v>
+        <v>0.1282540292994148</v>
       </c>
       <c r="D95">
-        <v>-0.03855908674447365</v>
+        <v>-0.06136727941123069</v>
       </c>
       <c r="E95">
-        <v>0.0497173222204418</v>
+        <v>-0.04589688386522325</v>
       </c>
       <c r="F95">
-        <v>-0.04168210878006744</v>
+        <v>-0.07155358119753329</v>
       </c>
       <c r="G95">
-        <v>0.1371497654668932</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.04552912355542209</v>
+      </c>
+      <c r="H95">
+        <v>-0.0731273566037596</v>
+      </c>
+      <c r="I95">
+        <v>0.127926702730796</v>
+      </c>
+      <c r="J95">
+        <v>0.1931479471521023</v>
+      </c>
+      <c r="K95">
+        <v>0.2628929545428164</v>
+      </c>
+      <c r="L95">
+        <v>-0.1325400332847768</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4348,139 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>-0.000244069230783496</v>
+        <v>0.0110911458745922</v>
       </c>
       <c r="C97">
-        <v>8.523439008228548e-07</v>
+        <v>0.01656849451748421</v>
       </c>
       <c r="D97">
-        <v>4.74653909673402e-05</v>
+        <v>0.008878750635400173</v>
       </c>
       <c r="E97">
-        <v>0.000650712374142202</v>
+        <v>-0.03034948832796204</v>
       </c>
       <c r="F97">
-        <v>0.0006058132621670598</v>
+        <v>0.01295326101688202</v>
       </c>
       <c r="G97">
-        <v>-0.0007195473510800023</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.02895923460890069</v>
+      </c>
+      <c r="H97">
+        <v>-0.03509506885241577</v>
+      </c>
+      <c r="I97">
+        <v>0.01505543883465249</v>
+      </c>
+      <c r="J97">
+        <v>0.04408954468985383</v>
+      </c>
+      <c r="K97">
+        <v>-0.1298659063832673</v>
+      </c>
+      <c r="L97">
+        <v>-0.08824158657746731</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>-0.09358728477882737</v>
+        <v>0.1298771534335962</v>
       </c>
       <c r="C98">
-        <v>0.1430933845712603</v>
+        <v>0.1583808422451981</v>
       </c>
       <c r="D98">
-        <v>-0.1046271212813868</v>
+        <v>-0.08770547004824049</v>
       </c>
       <c r="E98">
-        <v>0.07445051068590415</v>
+        <v>-0.02390194368624304</v>
       </c>
       <c r="F98">
-        <v>0.04489682213366108</v>
+        <v>-0.2149035918918986</v>
       </c>
       <c r="G98">
-        <v>0.2768578151268319</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.3320274032748654</v>
+      </c>
+      <c r="H98">
+        <v>0.3374313267930571</v>
+      </c>
+      <c r="I98">
+        <v>-0.09447109609811553</v>
+      </c>
+      <c r="J98">
+        <v>-0.079986321166338</v>
+      </c>
+      <c r="K98">
+        <v>-0.1168812616654266</v>
+      </c>
+      <c r="L98">
+        <v>0.1984836175744223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.009036202903027479</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.03878166778846097</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.002094263498866991</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.00382736535084346</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.04025516456993063</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.0452371407530624</v>
+      </c>
+      <c r="H99">
+        <v>-0.09350041463886134</v>
+      </c>
+      <c r="I99">
+        <v>-0.04383860132787087</v>
+      </c>
+      <c r="J99">
+        <v>0.2033537090558395</v>
+      </c>
+      <c r="K99">
+        <v>-0.746085505702337</v>
+      </c>
+      <c r="L99">
+        <v>-0.4033772888786159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4500,101 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>-0.007319920046031944</v>
+        <v>0.01297268160722134</v>
       </c>
       <c r="C101">
-        <v>0.0720690515018724</v>
+        <v>0.07907328591964789</v>
       </c>
       <c r="D101">
-        <v>-0.04390009271700579</v>
+        <v>-0.05336338470927326</v>
       </c>
       <c r="E101">
-        <v>-0.04439940147400829</v>
+        <v>0.05517421600671126</v>
       </c>
       <c r="F101">
-        <v>0.005630140579904604</v>
+        <v>-0.008886069770332013</v>
       </c>
       <c r="G101">
-        <v>0.09266497453754236</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1162932188007952</v>
+      </c>
+      <c r="H101">
+        <v>-0.2928206477266698</v>
+      </c>
+      <c r="I101">
+        <v>0.03449459565616598</v>
+      </c>
+      <c r="J101">
+        <v>0.1756773621375181</v>
+      </c>
+      <c r="K101">
+        <v>-0.04034696046086825</v>
+      </c>
+      <c r="L101">
+        <v>0.3000437746289166</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B102">
-        <v>-0.01055682976657871</v>
+        <v>0.003859157596084887</v>
       </c>
       <c r="C102">
-        <v>0.03221731603998486</v>
+        <v>0.0125401131232019</v>
       </c>
       <c r="D102">
-        <v>-0.01062761153484153</v>
+        <v>-0.001826244216202319</v>
       </c>
       <c r="E102">
-        <v>0.02454057928825496</v>
+        <v>0.005272373601723388</v>
       </c>
       <c r="F102">
-        <v>-0.03072521461893746</v>
+        <v>-0.008938788844111241</v>
       </c>
       <c r="G102">
-        <v>0.002530228238240355</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.008960473707181853</v>
+      </c>
+      <c r="H102">
+        <v>-0.001826599750866031</v>
+      </c>
+      <c r="I102">
+        <v>0.01933930858856747</v>
+      </c>
+      <c r="J102">
+        <v>0.001684629540272208</v>
+      </c>
+      <c r="K102">
+        <v>-0.01248868176642709</v>
+      </c>
+      <c r="L102">
+        <v>0.02395515084011253</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4614,25 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4650,21 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
